--- a/_xml/Actors.xlsx
+++ b/_xml/Actors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19035" windowHeight="8445"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Railgun</t>
   </si>
   <si>
-    <t>Magic Wand</t>
-  </si>
-  <si>
     <t>Shinai</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>3+1.5</t>
   </si>
   <si>
-    <t>Megaphone</t>
-  </si>
-  <si>
     <t>360+5</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Huilian Q.</t>
   </si>
   <si>
-    <t>Microphone</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -163,13 +154,28 @@
   </si>
   <si>
     <t>Lixian W.</t>
+  </si>
+  <si>
+    <t>Knitting Needles</t>
+  </si>
+  <si>
+    <t>Frying Pan</t>
+  </si>
+  <si>
+    <t>Jade Daggers</t>
+  </si>
+  <si>
+    <t>David R.</t>
+  </si>
+  <si>
+    <t>Chris P.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -312,11 +318,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -332,18 +379,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +405,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +485,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -463,7 +519,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -500,7 +556,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -537,7 +593,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -620,6 +676,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -739,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:G16" tableType="xml" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
-  <autoFilter ref="B2:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:G18" tableType="xml" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
+  <autoFilter ref="B2:G18"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="5">
       <xmlColumnPr mapId="13" xpath="/Actors/Actor/Name" xmlDataType="string"/>
@@ -840,6 +901,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -874,6 +936,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1049,26 +1112,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1085,34 +1148,34 @@
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1">
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>24</v>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>1</v>
@@ -1120,491 +1183,507 @@
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="B7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="27">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="B8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="24">
         <v>0</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>32</v>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>24</v>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11:A57" si="1">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1620,24 +1699,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_xml/Actors.xlsx
+++ b/_xml/Actors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19035" windowHeight="8445"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -114,24 +114,6 @@
     <t>3+1.5</t>
   </si>
   <si>
-    <t>360+5</t>
-  </si>
-  <si>
-    <t>264+5</t>
-  </si>
-  <si>
-    <t>288+5</t>
-  </si>
-  <si>
-    <t>312+5</t>
-  </si>
-  <si>
-    <t>432+5</t>
-  </si>
-  <si>
-    <t>336+5</t>
-  </si>
-  <si>
     <t>Huilian Q.</t>
   </si>
   <si>
@@ -169,13 +151,28 @@
   </si>
   <si>
     <t>Chris P.</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -421,6 +418,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +485,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -519,7 +519,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -556,7 +556,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -593,7 +593,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -901,7 +901,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -936,7 +935,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1112,14 +1110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -1129,9 +1127,9 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1152,7 +1150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" thickTop="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1169,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>1</v>
@@ -1193,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1217,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1241,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1264,14 +1262,14 @@
       <c r="E7" s="27">
         <v>0</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>34</v>
+      <c r="F7" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1288,14 +1286,14 @@
       <c r="E8" s="24">
         <v>0</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>35</v>
+      <c r="F8" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1313,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>30</v>
@@ -1337,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <f t="shared" ref="A11:A57" si="1">A10+1</f>
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -1357,13 +1355,13 @@
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -1371,13 +1369,13 @@
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -1385,13 +1383,13 @@
       <c r="F13" s="14"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1399,13 +1397,13 @@
       <c r="F14" s="14"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -1413,13 +1411,13 @@
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -1427,13 +1425,13 @@
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1441,13 +1439,13 @@
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1455,235 +1453,235 @@
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1699,24 +1697,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
